--- a/grupos/2ALCV - Estadisticos 2020.xlsx
+++ b/grupos/2ALCV - Estadisticos 2020.xlsx
@@ -3029,6 +3029,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4505,7 +4506,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5082,6 +5084,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/2ALCV - Estadisticos 2020.xlsx
+++ b/grupos/2ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="148">
   <si>
     <t>Materia</t>
   </si>
@@ -209,9 +209,15 @@
     <t>ASCENCION</t>
   </si>
   <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
@@ -224,43 +230,76 @@
     <t>ESTEVEZ</t>
   </si>
   <si>
+    <t>ESPERON</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
     <t>GALVEZ</t>
   </si>
   <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
     <t>LUIS</t>
   </si>
   <si>
+    <t>MELENDEZ</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
     <t>ROBLES</t>
   </si>
   <si>
     <t>ROSAS</t>
   </si>
   <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>ROMERO</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>DE LA TEJA</t>
   </si>
   <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
     <t>CASTILLO</t>
   </si>
   <si>
+    <t>NARANJO</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
-    <t>GOMEZ</t>
+    <t>CONTRERAS</t>
   </si>
   <si>
     <t>REYES</t>
@@ -272,12 +311,21 @@
     <t>MORENO</t>
   </si>
   <si>
+    <t>MORA</t>
+  </si>
+  <si>
     <t>ROQUE</t>
   </si>
   <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
     <t>COLOHUA</t>
   </si>
   <si>
+    <t>TREJO</t>
+  </si>
+  <si>
     <t>JUAREZ</t>
   </si>
   <si>
@@ -290,9 +338,18 @@
     <t>DAMIEN</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
     <t>GASPAR</t>
   </si>
   <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>ZACARIAS</t>
   </si>
   <si>
@@ -302,15 +359,27 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
   </si>
   <si>
     <t>REYNA ARISBETH</t>
   </si>
   <si>
+    <t>MARGARITA JAZMIN</t>
+  </si>
+  <si>
     <t>ANALI</t>
   </si>
   <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
     <t>DULCE FERNANDA</t>
   </si>
   <si>
@@ -323,12 +392,27 @@
     <t>ERICK DE JESUS</t>
   </si>
   <si>
+    <t>MIA VALENTINA</t>
+  </si>
+  <si>
     <t>AMARELY GUADALUPE</t>
   </si>
   <si>
+    <t>FRIDA SOFIA</t>
+  </si>
+  <si>
     <t>ANTONIO ABIDAN</t>
   </si>
   <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>MILAGROS</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
     <t>SHADAI COSTANTIN</t>
   </si>
   <si>
@@ -338,15 +422,27 @@
     <t>CLARET YAZMIN</t>
   </si>
   <si>
+    <t>MARITZA JULIANA</t>
+  </si>
+  <si>
     <t>VICTOR MANUEL</t>
   </si>
   <si>
+    <t>LESLIE</t>
+  </si>
+  <si>
+    <t>YEILI DAYNERIS</t>
+  </si>
+  <si>
     <t>JULIO CESAR</t>
   </si>
   <si>
     <t>DIANA SARAY</t>
   </si>
   <si>
+    <t>INGRID SARAI</t>
+  </si>
+  <si>
     <t>SUSANA</t>
   </si>
   <si>
@@ -356,109 +452,13 @@
     <t>AMADA ARELY</t>
   </si>
   <si>
+    <t>MARIA XIMENA</t>
+  </si>
+  <si>
+    <t>LUIS DIEGO</t>
+  </si>
+  <si>
     <t>ALISSON FERNANDA</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>BALTAZARES</t>
-  </si>
-  <si>
-    <t>ESPERON</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>MELENDEZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>PEÑA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>NARANJO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>MARGARITA JAZMIN</t>
-  </si>
-  <si>
-    <t>JOCELYN</t>
-  </si>
-  <si>
-    <t>MIA VALENTINA</t>
-  </si>
-  <si>
-    <t>FRIDA SOFIA</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>MILAGROS</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>MARITZA JULIANA</t>
-  </si>
-  <si>
-    <t>LESLIE</t>
-  </si>
-  <si>
-    <t>YEILI DAYNERIS</t>
-  </si>
-  <si>
-    <t>INGRID SARAI</t>
-  </si>
-  <si>
-    <t>MARIA XIMENA</t>
-  </si>
-  <si>
-    <t>LUIS DIEGO</t>
   </si>
   <si>
     <t>EMILY</t>
@@ -1738,7 +1738,7 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>-1</v>
@@ -1915,7 +1915,7 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>-1</v>
@@ -2151,7 +2151,7 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
         <v>-1</v>
@@ -2210,7 +2210,7 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>-1</v>
@@ -2328,7 +2328,7 @@
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>-1</v>
@@ -3023,7 +3023,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3061,10 +3061,10 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -3081,16 +3081,16 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3101,16 +3101,16 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -3141,30 +3141,30 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920191</v>
+        <v>20330051920190</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -3175,36 +3175,36 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920191</v>
+        <v>17330051920305</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920193</v>
+        <v>17330051920305</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -3215,76 +3215,76 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920193</v>
+        <v>20330051920191</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920193</v>
+        <v>20330051920191</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920193</v>
+        <v>20330051920191</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920392</v>
+        <v>20330051920191</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -3295,116 +3295,116 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920392</v>
+        <v>20330051920191</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920392</v>
+        <v>20330051920191</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920392</v>
+        <v>20330051920192</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920392</v>
+        <v>20330051920192</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920194</v>
+        <v>20330051920192</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920194</v>
+        <v>20330051920192</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -3415,96 +3415,96 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920194</v>
+        <v>20330051920192</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920194</v>
+        <v>20330051920192</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920194</v>
+        <v>20330051920193</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920196</v>
+        <v>20330051920193</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920196</v>
+        <v>20330051920193</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -3515,56 +3515,56 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920196</v>
+        <v>20330051920193</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920196</v>
+        <v>20330051920193</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920196</v>
+        <v>20330051920193</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -3575,276 +3575,276 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920198</v>
+        <v>20330051920392</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920198</v>
+        <v>20330051920392</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920198</v>
+        <v>20330051920392</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920200</v>
+        <v>20330051920392</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920200</v>
+        <v>20330051920392</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920203</v>
+        <v>20330051920392</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920203</v>
+        <v>20330051920194</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920203</v>
+        <v>20330051920194</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920203</v>
+        <v>20330051920194</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920204</v>
+        <v>20330051920194</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920204</v>
+        <v>20330051920194</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920204</v>
+        <v>20330051920194</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920204</v>
+        <v>20330051920196</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920204</v>
+        <v>20330051920196</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
@@ -3855,56 +3855,56 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920204</v>
+        <v>20330051920196</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920205</v>
+        <v>20330051920196</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920205</v>
+        <v>20330051920196</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -3915,236 +3915,236 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920205</v>
+        <v>20330051920196</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920205</v>
+        <v>20330051920197</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920205</v>
+        <v>20330051920197</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920205</v>
+        <v>20330051920197</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920207</v>
+        <v>20330051920197</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920207</v>
+        <v>20330051920197</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920207</v>
+        <v>20330051920197</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920207</v>
+        <v>20330051920198</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920207</v>
+        <v>20330051920198</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920207</v>
+        <v>20330051920198</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920210</v>
+        <v>20330051920198</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920211</v>
+        <v>20330051920198</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
@@ -4155,342 +4155,2562 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920211</v>
+        <v>20330051920198</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920213</v>
+        <v>20330051920199</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920213</v>
+        <v>20330051920199</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920213</v>
+        <v>20330051920199</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920213</v>
+        <v>20330051920199</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920213</v>
+        <v>20330051920199</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920214</v>
+        <v>20330051920200</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920214</v>
+        <v>20330051920200</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920214</v>
+        <v>20330051920200</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920214</v>
+        <v>20330051920200</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920214</v>
+        <v>20330051920200</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920215</v>
+        <v>20330051920200</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920215</v>
+        <v>20330051920201</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920215</v>
+        <v>20330051920201</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920215</v>
+        <v>20330051920201</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920218</v>
+        <v>20330051920201</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
+        <v>20330051920201</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>20330051920201</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>19330051920280</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>19330051920280</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>19330051920280</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>19330051920280</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>19330051920280</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>20330051920202</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>20330051920202</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>20330051920202</v>
+      </c>
+      <c r="B82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>20330051920202</v>
+      </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>20330051920202</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>20330051920202</v>
+      </c>
+      <c r="B85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>20330051920203</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>20330051920203</v>
+      </c>
+      <c r="B87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>20330051920203</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>20330051920203</v>
+      </c>
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>20330051920203</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>20330051920203</v>
+      </c>
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>20330051920204</v>
+      </c>
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>20330051920204</v>
+      </c>
+      <c r="B93" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>20330051920204</v>
+      </c>
+      <c r="B94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>20330051920204</v>
+      </c>
+      <c r="B95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>20330051920204</v>
+      </c>
+      <c r="B96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" t="s">
+        <v>132</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>20330051920204</v>
+      </c>
+      <c r="B97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>20330051920205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>20330051920205</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>20330051920205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>20330051920205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>20330051920205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>20330051920205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>20330051920206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>20330051920206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>20330051920206</v>
+      </c>
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>20330051920206</v>
+      </c>
+      <c r="B107" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>20330051920206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>20330051920206</v>
+      </c>
+      <c r="B109" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>20330051920207</v>
+      </c>
+      <c r="B110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>20330051920207</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>20330051920207</v>
+      </c>
+      <c r="B112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>20330051920207</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" t="s">
+        <v>105</v>
+      </c>
+      <c r="D113" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>20330051920207</v>
+      </c>
+      <c r="B114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" t="s">
+        <v>135</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>20330051920207</v>
+      </c>
+      <c r="B115" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" t="s">
+        <v>105</v>
+      </c>
+      <c r="D115" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>20330051920208</v>
+      </c>
+      <c r="B116" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" t="s">
+        <v>106</v>
+      </c>
+      <c r="D116" t="s">
+        <v>136</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>20330051920208</v>
+      </c>
+      <c r="B117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>20330051920208</v>
+      </c>
+      <c r="B118" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" t="s">
+        <v>106</v>
+      </c>
+      <c r="D118" t="s">
+        <v>136</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>20330051920208</v>
+      </c>
+      <c r="B119" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" t="s">
+        <v>106</v>
+      </c>
+      <c r="D119" t="s">
+        <v>136</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>20330051920208</v>
+      </c>
+      <c r="B120" t="s">
+        <v>80</v>
+      </c>
+      <c r="C120" t="s">
+        <v>106</v>
+      </c>
+      <c r="D120" t="s">
+        <v>136</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>20330051920209</v>
+      </c>
+      <c r="B121" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" t="s">
+        <v>107</v>
+      </c>
+      <c r="D121" t="s">
+        <v>137</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>20330051920209</v>
+      </c>
+      <c r="B122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" t="s">
+        <v>107</v>
+      </c>
+      <c r="D122" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>20330051920209</v>
+      </c>
+      <c r="B123" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" t="s">
+        <v>107</v>
+      </c>
+      <c r="D123" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>20330051920209</v>
+      </c>
+      <c r="B124" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" t="s">
+        <v>107</v>
+      </c>
+      <c r="D124" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>20330051920209</v>
+      </c>
+      <c r="B125" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" t="s">
+        <v>107</v>
+      </c>
+      <c r="D125" t="s">
+        <v>137</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>20330051920210</v>
+      </c>
+      <c r="B126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" t="s">
+        <v>138</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>20330051920210</v>
+      </c>
+      <c r="B127" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" t="s">
+        <v>90</v>
+      </c>
+      <c r="D127" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>20330051920210</v>
+      </c>
+      <c r="B128" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" t="s">
+        <v>90</v>
+      </c>
+      <c r="D128" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>20330051920210</v>
+      </c>
+      <c r="B129" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129" t="s">
+        <v>90</v>
+      </c>
+      <c r="D129" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>20330051920210</v>
+      </c>
+      <c r="B130" t="s">
+        <v>82</v>
+      </c>
+      <c r="C130" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>20330051920210</v>
+      </c>
+      <c r="B131" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" t="s">
+        <v>90</v>
+      </c>
+      <c r="D131" t="s">
+        <v>138</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>20330051920211</v>
+      </c>
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" t="s">
+        <v>108</v>
+      </c>
+      <c r="D132" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>20330051920211</v>
+      </c>
+      <c r="B133" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>20330051920211</v>
+      </c>
+      <c r="B134" t="s">
+        <v>83</v>
+      </c>
+      <c r="C134" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" t="s">
+        <v>139</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>20330051920211</v>
+      </c>
+      <c r="B135" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" t="s">
+        <v>108</v>
+      </c>
+      <c r="D135" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>20330051920211</v>
+      </c>
+      <c r="B136" t="s">
+        <v>83</v>
+      </c>
+      <c r="C136" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" t="s">
+        <v>139</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>20330051920211</v>
+      </c>
+      <c r="B137" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" t="s">
+        <v>108</v>
+      </c>
+      <c r="D137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>20330051920212</v>
+      </c>
+      <c r="B138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" t="s">
+        <v>109</v>
+      </c>
+      <c r="D138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>20330051920212</v>
+      </c>
+      <c r="B139" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" t="s">
+        <v>109</v>
+      </c>
+      <c r="D139" t="s">
+        <v>140</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>20330051920212</v>
+      </c>
+      <c r="B140" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" t="s">
+        <v>109</v>
+      </c>
+      <c r="D140" t="s">
+        <v>140</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>20330051920212</v>
+      </c>
+      <c r="B141" t="s">
+        <v>84</v>
+      </c>
+      <c r="C141" t="s">
+        <v>109</v>
+      </c>
+      <c r="D141" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>20330051920212</v>
+      </c>
+      <c r="B142" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" t="s">
+        <v>109</v>
+      </c>
+      <c r="D142" t="s">
+        <v>140</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>20330051920213</v>
+      </c>
+      <c r="B143" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" t="s">
+        <v>110</v>
+      </c>
+      <c r="D143" t="s">
+        <v>141</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>20330051920213</v>
+      </c>
+      <c r="B144" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" t="s">
+        <v>110</v>
+      </c>
+      <c r="D144" t="s">
+        <v>141</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>20330051920213</v>
+      </c>
+      <c r="B145" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" t="s">
+        <v>110</v>
+      </c>
+      <c r="D145" t="s">
+        <v>141</v>
+      </c>
+      <c r="E145" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>20330051920213</v>
+      </c>
+      <c r="B146" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" t="s">
+        <v>110</v>
+      </c>
+      <c r="D146" t="s">
+        <v>141</v>
+      </c>
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>20330051920213</v>
+      </c>
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" t="s">
+        <v>110</v>
+      </c>
+      <c r="D147" t="s">
+        <v>141</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>20330051920213</v>
+      </c>
+      <c r="B148" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" t="s">
+        <v>110</v>
+      </c>
+      <c r="D148" t="s">
+        <v>141</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>20330051920214</v>
+      </c>
+      <c r="B149" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" t="s">
+        <v>111</v>
+      </c>
+      <c r="D149" t="s">
+        <v>142</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>20330051920214</v>
+      </c>
+      <c r="B150" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" t="s">
+        <v>111</v>
+      </c>
+      <c r="D150" t="s">
+        <v>142</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>20330051920214</v>
+      </c>
+      <c r="B151" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151" t="s">
+        <v>111</v>
+      </c>
+      <c r="D151" t="s">
+        <v>142</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>20330051920214</v>
+      </c>
+      <c r="B152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D152" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>20330051920214</v>
+      </c>
+      <c r="B153" t="s">
+        <v>86</v>
+      </c>
+      <c r="C153" t="s">
+        <v>111</v>
+      </c>
+      <c r="D153" t="s">
+        <v>142</v>
+      </c>
+      <c r="E153" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>20330051920214</v>
+      </c>
+      <c r="B154" t="s">
+        <v>86</v>
+      </c>
+      <c r="C154" t="s">
+        <v>111</v>
+      </c>
+      <c r="D154" t="s">
+        <v>142</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>20330051920215</v>
+      </c>
+      <c r="B155" t="s">
+        <v>86</v>
+      </c>
+      <c r="C155" t="s">
+        <v>112</v>
+      </c>
+      <c r="D155" t="s">
+        <v>143</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>20330051920215</v>
+      </c>
+      <c r="B156" t="s">
+        <v>86</v>
+      </c>
+      <c r="C156" t="s">
+        <v>112</v>
+      </c>
+      <c r="D156" t="s">
+        <v>143</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>20330051920215</v>
+      </c>
+      <c r="B157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C157" t="s">
+        <v>112</v>
+      </c>
+      <c r="D157" t="s">
+        <v>143</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>20330051920215</v>
+      </c>
+      <c r="B158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C158" t="s">
+        <v>112</v>
+      </c>
+      <c r="D158" t="s">
+        <v>143</v>
+      </c>
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>20330051920215</v>
+      </c>
+      <c r="B159" t="s">
+        <v>86</v>
+      </c>
+      <c r="C159" t="s">
+        <v>112</v>
+      </c>
+      <c r="D159" t="s">
+        <v>143</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>20330051920215</v>
+      </c>
+      <c r="B160" t="s">
+        <v>86</v>
+      </c>
+      <c r="C160" t="s">
+        <v>112</v>
+      </c>
+      <c r="D160" t="s">
+        <v>143</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>20330051920216</v>
+      </c>
+      <c r="B161" t="s">
+        <v>87</v>
+      </c>
+      <c r="C161" t="s">
+        <v>113</v>
+      </c>
+      <c r="D161" t="s">
+        <v>144</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>20330051920216</v>
+      </c>
+      <c r="B162" t="s">
+        <v>87</v>
+      </c>
+      <c r="C162" t="s">
+        <v>113</v>
+      </c>
+      <c r="D162" t="s">
+        <v>144</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>20330051920216</v>
+      </c>
+      <c r="B163" t="s">
+        <v>87</v>
+      </c>
+      <c r="C163" t="s">
+        <v>113</v>
+      </c>
+      <c r="D163" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>20330051920216</v>
+      </c>
+      <c r="B164" t="s">
+        <v>87</v>
+      </c>
+      <c r="C164" t="s">
+        <v>113</v>
+      </c>
+      <c r="D164" t="s">
+        <v>144</v>
+      </c>
+      <c r="E164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>20330051920216</v>
+      </c>
+      <c r="B165" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" t="s">
+        <v>113</v>
+      </c>
+      <c r="D165" t="s">
+        <v>144</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>20330051920216</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166" t="s">
+        <v>113</v>
+      </c>
+      <c r="D166" t="s">
+        <v>144</v>
+      </c>
+      <c r="E166" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>20330051920217</v>
+      </c>
+      <c r="B167" t="s">
+        <v>86</v>
+      </c>
+      <c r="C167" t="s">
+        <v>114</v>
+      </c>
+      <c r="D167" t="s">
+        <v>145</v>
+      </c>
+      <c r="E167" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>20330051920217</v>
+      </c>
+      <c r="B168" t="s">
+        <v>86</v>
+      </c>
+      <c r="C168" t="s">
+        <v>114</v>
+      </c>
+      <c r="D168" t="s">
+        <v>145</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>20330051920217</v>
+      </c>
+      <c r="B169" t="s">
+        <v>86</v>
+      </c>
+      <c r="C169" t="s">
+        <v>114</v>
+      </c>
+      <c r="D169" t="s">
+        <v>145</v>
+      </c>
+      <c r="E169" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>20330051920217</v>
+      </c>
+      <c r="B170" t="s">
+        <v>86</v>
+      </c>
+      <c r="C170" t="s">
+        <v>114</v>
+      </c>
+      <c r="D170" t="s">
+        <v>145</v>
+      </c>
+      <c r="E170" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>20330051920217</v>
+      </c>
+      <c r="B171" t="s">
+        <v>86</v>
+      </c>
+      <c r="C171" t="s">
+        <v>114</v>
+      </c>
+      <c r="D171" t="s">
+        <v>145</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>20330051920217</v>
+      </c>
+      <c r="B172" t="s">
+        <v>86</v>
+      </c>
+      <c r="C172" t="s">
+        <v>114</v>
+      </c>
+      <c r="D172" t="s">
+        <v>145</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
         <v>20330051920218</v>
       </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="B173" t="s">
+        <v>88</v>
+      </c>
+      <c r="C173" t="s">
+        <v>109</v>
+      </c>
+      <c r="D173" t="s">
+        <v>146</v>
+      </c>
+      <c r="E173" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>20330051920218</v>
+      </c>
+      <c r="B174" t="s">
+        <v>88</v>
+      </c>
+      <c r="C174" t="s">
+        <v>109</v>
+      </c>
+      <c r="D174" t="s">
+        <v>146</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>20330051920218</v>
+      </c>
+      <c r="B175" t="s">
+        <v>88</v>
+      </c>
+      <c r="C175" t="s">
+        <v>109</v>
+      </c>
+      <c r="D175" t="s">
+        <v>146</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>20330051920218</v>
+      </c>
+      <c r="B176" t="s">
+        <v>88</v>
+      </c>
+      <c r="C176" t="s">
+        <v>109</v>
+      </c>
+      <c r="D176" t="s">
+        <v>146</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>20330051920218</v>
+      </c>
+      <c r="B177" t="s">
+        <v>88</v>
+      </c>
+      <c r="C177" t="s">
+        <v>109</v>
+      </c>
+      <c r="D177" t="s">
+        <v>146</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>20330051920218</v>
+      </c>
+      <c r="B178" t="s">
+        <v>88</v>
+      </c>
+      <c r="C178" t="s">
+        <v>109</v>
+      </c>
+      <c r="D178" t="s">
+        <v>146</v>
+      </c>
+      <c r="E178" t="s">
         <v>5</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F178" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>20330051920219</v>
+      </c>
+      <c r="B179" t="s">
+        <v>89</v>
+      </c>
+      <c r="C179" t="s">
+        <v>115</v>
+      </c>
+      <c r="D179" t="s">
+        <v>147</v>
+      </c>
+      <c r="E179" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>20330051920219</v>
+      </c>
+      <c r="B180" t="s">
+        <v>89</v>
+      </c>
+      <c r="C180" t="s">
+        <v>115</v>
+      </c>
+      <c r="D180" t="s">
+        <v>147</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>20330051920219</v>
+      </c>
+      <c r="B181" t="s">
+        <v>89</v>
+      </c>
+      <c r="C181" t="s">
+        <v>115</v>
+      </c>
+      <c r="D181" t="s">
+        <v>147</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>20330051920219</v>
+      </c>
+      <c r="B182" t="s">
+        <v>89</v>
+      </c>
+      <c r="C182" t="s">
+        <v>115</v>
+      </c>
+      <c r="D182" t="s">
+        <v>147</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>20330051920219</v>
+      </c>
+      <c r="B183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C183" t="s">
+        <v>115</v>
+      </c>
+      <c r="D183" t="s">
+        <v>147</v>
+      </c>
+      <c r="E183" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>20330051920219</v>
+      </c>
+      <c r="B184" t="s">
+        <v>89</v>
+      </c>
+      <c r="C184" t="s">
+        <v>115</v>
+      </c>
+      <c r="D184" t="s">
+        <v>147</v>
+      </c>
+      <c r="E184" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4532,13 +6752,13 @@
         <v>20330051920204</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -4549,13 +6769,13 @@
         <v>20330051920205</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -4566,13 +6786,13 @@
         <v>20330051920207</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -4586,10 +6806,10 @@
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -4600,13 +6820,13 @@
         <v>20330051920392</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -4617,13 +6837,13 @@
         <v>20330051920194</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -4634,13 +6854,13 @@
         <v>20330051920196</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -4651,13 +6871,13 @@
         <v>20330051920213</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -4668,13 +6888,13 @@
         <v>20330051920214</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -4685,13 +6905,13 @@
         <v>20330051920193</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -4702,13 +6922,13 @@
         <v>20330051920203</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -4719,13 +6939,13 @@
         <v>20330051920215</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -4736,13 +6956,13 @@
         <v>20330051920198</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -4753,13 +6973,13 @@
         <v>20330051920191</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -4770,13 +6990,13 @@
         <v>20330051920200</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4787,13 +7007,13 @@
         <v>20330051920211</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4804,13 +7024,13 @@
         <v>20330051920218</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -4821,13 +7041,13 @@
         <v>20330051920210</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4838,13 +7058,13 @@
         <v>17330051920305</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4855,13 +7075,13 @@
         <v>20330051920192</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4872,13 +7092,13 @@
         <v>20330051920197</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4889,13 +7109,13 @@
         <v>20330051920199</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4906,13 +7126,13 @@
         <v>20330051920201</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4923,13 +7143,13 @@
         <v>19330051920280</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4940,13 +7160,13 @@
         <v>20330051920202</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4957,13 +7177,13 @@
         <v>20330051920206</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4974,13 +7194,13 @@
         <v>20330051920208</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4991,13 +7211,13 @@
         <v>20330051920209</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5008,13 +7228,13 @@
         <v>20330051920212</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5025,13 +7245,13 @@
         <v>20330051920216</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5042,13 +7262,13 @@
         <v>20330051920217</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5059,10 +7279,10 @@
         <v>20330051920219</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>147</v>
@@ -5078,7 +7298,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5113,209 +7333,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920191</v>
+        <v>17330051920305</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920191</v>
+        <v>17330051920305</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
         <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920200</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920211</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920211</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920218</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920218</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2ALCV - Estadisticos 2020.xlsx
+++ b/grupos/2ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="148">
   <si>
     <t>Materia</t>
   </si>
@@ -176,22 +176,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
+    <t>Santiago Hernández Mariana</t>
+  </si>
+  <si>
+    <t>Medina Tolentino Francisco</t>
+  </si>
+  <si>
+    <t>Flores Ovalle Victor</t>
+  </si>
+  <si>
     <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
     <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
-    <t>Flores Ovalle Victor</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Francisco</t>
-  </si>
-  <si>
-    <t>García Sánchez Magda Bexabe</t>
-  </si>
-  <si>
-    <t>Santiago Hernández Mariana</t>
   </si>
   <si>
     <t>NC</t>
@@ -933,7 +933,7 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -950,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -959,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -968,7 +968,7 @@
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -977,10 +977,10 @@
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1018,16 +1018,16 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>-1</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -1036,7 +1036,7 @@
         <v>-1</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <v>-1</v>
@@ -1086,19 +1086,19 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K7">
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -1136,16 +1136,16 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -1154,7 +1154,7 @@
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>-1</v>
@@ -1195,10 +1195,10 @@
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1213,7 +1213,7 @@
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -1254,16 +1254,16 @@
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <v>-1</v>
@@ -1272,7 +1272,7 @@
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>-1</v>
@@ -1322,7 +1322,7 @@
         <v>-1</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>-1</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M11">
         <v>-1</v>
@@ -1363,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1372,16 +1372,16 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>-1</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>-1</v>
@@ -1390,7 +1390,7 @@
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -1431,10 +1431,10 @@
         <v>-1</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1449,7 +1449,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -1481,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1490,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -1499,7 +1499,7 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>-1</v>
@@ -1508,10 +1508,10 @@
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1558,19 +1558,19 @@
         <v>-1</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1599,7 +1599,7 @@
         <v>-1</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1608,16 +1608,16 @@
         <v>6</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>-1</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J16">
         <v>-1</v>
@@ -1626,10 +1626,10 @@
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1658,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1667,16 +1667,16 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <v>-1</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J17">
         <v>-1</v>
@@ -1685,7 +1685,7 @@
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <v>-1</v>
@@ -1735,7 +1735,7 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -1744,10 +1744,10 @@
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1779,13 +1779,13 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -1794,19 +1794,19 @@
         <v>-1</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K19">
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1853,7 +1853,7 @@
         <v>-1</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J20">
         <v>-1</v>
@@ -1862,10 +1862,10 @@
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -1912,7 +1912,7 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -1921,10 +1921,10 @@
         <v>-1</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -1962,10 +1962,10 @@
         <v>-1</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -1980,7 +1980,7 @@
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M22">
         <v>-1</v>
@@ -2030,19 +2030,19 @@
         <v>-1</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K23">
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2080,10 +2080,10 @@
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2098,7 +2098,7 @@
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -2148,7 +2148,7 @@
         <v>-1</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J25">
         <v>10</v>
@@ -2157,10 +2157,10 @@
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2207,7 +2207,7 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -2216,10 +2216,10 @@
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2257,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <v>8</v>
@@ -2266,7 +2266,7 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2275,10 +2275,10 @@
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2325,7 +2325,7 @@
         <v>-1</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <v>10</v>
@@ -2334,10 +2334,10 @@
         <v>-1</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2375,10 +2375,10 @@
         <v>7</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2393,7 +2393,7 @@
         <v>-1</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <v>-1</v>
@@ -2434,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>9</v>
@@ -2443,19 +2443,19 @@
         <v>-1</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K30">
         <v>-1</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2484,7 +2484,7 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>9</v>
@@ -2493,16 +2493,16 @@
         <v>-1</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>-1</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J31">
         <v>-1</v>
@@ -2511,7 +2511,7 @@
         <v>-1</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M31">
         <v>-1</v>
@@ -2543,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -2552,16 +2552,16 @@
         <v>-1</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <v>-1</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J32">
         <v>-1</v>
@@ -2570,7 +2570,7 @@
         <v>-1</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M32">
         <v>-1</v>
@@ -2620,19 +2620,19 @@
         <v>-1</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K33">
         <v>-1</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -2679,19 +2679,19 @@
         <v>-1</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K34">
         <v>-1</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -2738,19 +2738,19 @@
         <v>-1</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K35">
         <v>-1</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -2826,39 +2826,36 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>41.94</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J2">
-        <v>58.06</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -2867,126 +2864,123 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>54.84</v>
-      </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>8.199999999999999</v>
+        <v>77.42</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J3">
-        <v>45.16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>59.38</v>
+        <v>41.94</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>22.58</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J4">
-        <v>40.63</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>19</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>61.29</v>
+        <v>59.38</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>40.63</v>
       </c>
       <c r="H5">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5">
-        <v>38.71</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="G6">
+        <v>32.26</v>
+      </c>
+      <c r="H6">
+        <v>7.3</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>75</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -2995,13 +2989,13 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>77.42</v>
+        <v>83.87</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3010,10 +3004,10 @@
         <v>7.5</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>22.58</v>
+        <v>16.13</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3017,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3067,10 +3061,10 @@
         <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3087,10 +3081,10 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3107,10 +3101,10 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3127,87 +3121,87 @@
         <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920190</v>
+        <v>17330051920305</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920190</v>
+        <v>20330051920191</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>17330051920305</v>
+        <v>20330051920191</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>17330051920305</v>
+        <v>20330051920191</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -3215,139 +3209,139 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920191</v>
+        <v>20330051920192</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920191</v>
+        <v>20330051920192</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920191</v>
+        <v>20330051920193</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920191</v>
+        <v>20330051920193</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920191</v>
+        <v>20330051920193</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920191</v>
+        <v>20330051920193</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920192</v>
+        <v>20330051920392</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
@@ -3355,239 +3349,239 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920192</v>
+        <v>20330051920392</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920192</v>
+        <v>20330051920392</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920192</v>
+        <v>20330051920392</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920192</v>
+        <v>20330051920392</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920192</v>
+        <v>20330051920194</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920193</v>
+        <v>20330051920194</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920193</v>
+        <v>20330051920194</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920193</v>
+        <v>20330051920194</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920193</v>
+        <v>20330051920196</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920193</v>
+        <v>20330051920196</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920193</v>
+        <v>20330051920196</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920392</v>
+        <v>20330051920197</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
@@ -3595,139 +3589,139 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920392</v>
+        <v>20330051920197</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920392</v>
+        <v>20330051920198</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920392</v>
+        <v>20330051920198</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920392</v>
+        <v>20330051920198</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920392</v>
+        <v>20330051920198</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920194</v>
+        <v>20330051920199</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920194</v>
+        <v>20330051920199</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -3735,19 +3729,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920194</v>
+        <v>20330051920200</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -3755,379 +3749,379 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920194</v>
+        <v>20330051920200</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920194</v>
+        <v>20330051920201</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920194</v>
+        <v>20330051920201</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920196</v>
+        <v>20330051920201</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920196</v>
+        <v>19330051920280</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920196</v>
+        <v>19330051920280</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920196</v>
+        <v>20330051920202</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920196</v>
+        <v>20330051920202</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920196</v>
+        <v>20330051920202</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920197</v>
+        <v>20330051920202</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920197</v>
+        <v>20330051920203</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920197</v>
+        <v>20330051920203</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920197</v>
+        <v>20330051920203</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920197</v>
+        <v>20330051920203</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920197</v>
+        <v>20330051920204</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920198</v>
+        <v>20330051920204</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920198</v>
+        <v>20330051920204</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920198</v>
+        <v>20330051920204</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920198</v>
+        <v>20330051920204</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
         <v>55</v>
@@ -4135,79 +4129,79 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920198</v>
+        <v>20330051920205</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920198</v>
+        <v>20330051920205</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920199</v>
+        <v>20330051920205</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920199</v>
+        <v>20330051920205</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
         <v>54</v>
@@ -4215,99 +4209,99 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920199</v>
+        <v>20330051920205</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920199</v>
+        <v>20330051920206</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920199</v>
+        <v>20330051920206</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920200</v>
+        <v>20330051920207</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920200</v>
+        <v>20330051920207</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>55</v>
@@ -4315,39 +4309,39 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920200</v>
+        <v>20330051920207</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920200</v>
+        <v>20330051920207</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>53</v>
@@ -4355,319 +4349,319 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920200</v>
+        <v>20330051920207</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920200</v>
+        <v>20330051920208</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920201</v>
+        <v>20330051920208</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920201</v>
+        <v>20330051920209</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920201</v>
+        <v>20330051920209</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920201</v>
+        <v>20330051920210</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920201</v>
+        <v>20330051920210</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920201</v>
+        <v>20330051920210</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920280</v>
+        <v>20330051920211</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920280</v>
+        <v>20330051920211</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920280</v>
+        <v>20330051920212</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920280</v>
+        <v>20330051920212</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920280</v>
+        <v>20330051920213</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D79" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>20330051920202</v>
+        <v>20330051920213</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D80" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>20330051920202</v>
+        <v>20330051920213</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>20330051920202</v>
+        <v>20330051920213</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
         <v>57</v>
@@ -4675,79 +4669,79 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>20330051920202</v>
+        <v>20330051920213</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>20330051920202</v>
+        <v>20330051920214</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>20330051920202</v>
+        <v>20330051920214</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>20330051920203</v>
+        <v>20330051920214</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F86" t="s">
         <v>54</v>
@@ -4755,159 +4749,159 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>20330051920203</v>
+        <v>20330051920214</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>20330051920203</v>
+        <v>20330051920215</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>20330051920203</v>
+        <v>20330051920215</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>20330051920203</v>
+        <v>20330051920215</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>20330051920203</v>
+        <v>20330051920215</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>20330051920204</v>
+        <v>20330051920216</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>20330051920204</v>
+        <v>20330051920216</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>20330051920204</v>
+        <v>20330051920217</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
         <v>52</v>
@@ -4915,1802 +4909,122 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>20330051920204</v>
+        <v>20330051920217</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>20330051920204</v>
+        <v>20330051920218</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>20330051920204</v>
+        <v>20330051920218</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>20330051920205</v>
+        <v>20330051920218</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D98" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E98" t="s">
         <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>20330051920205</v>
+        <v>20330051920219</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D99" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E99" t="s">
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>20330051920205</v>
+        <v>20330051920219</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920205</v>
-      </c>
-      <c r="B101" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" t="s">
-        <v>104</v>
-      </c>
-      <c r="D101" t="s">
-        <v>133</v>
-      </c>
-      <c r="E101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920205</v>
-      </c>
-      <c r="B102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" t="s">
-        <v>104</v>
-      </c>
-      <c r="D102" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920205</v>
-      </c>
-      <c r="B103" t="s">
-        <v>77</v>
-      </c>
-      <c r="C103" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" t="s">
-        <v>133</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920206</v>
-      </c>
-      <c r="B104" t="s">
-        <v>78</v>
-      </c>
-      <c r="C104" t="s">
-        <v>85</v>
-      </c>
-      <c r="D104" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920206</v>
-      </c>
-      <c r="B105" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105" t="s">
-        <v>85</v>
-      </c>
-      <c r="D105" t="s">
-        <v>134</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920206</v>
-      </c>
-      <c r="B106" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" t="s">
-        <v>85</v>
-      </c>
-      <c r="D106" t="s">
-        <v>134</v>
-      </c>
-      <c r="E106" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920206</v>
-      </c>
-      <c r="B107" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" t="s">
-        <v>134</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920206</v>
-      </c>
-      <c r="B108" t="s">
-        <v>78</v>
-      </c>
-      <c r="C108" t="s">
-        <v>85</v>
-      </c>
-      <c r="D108" t="s">
-        <v>134</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920206</v>
-      </c>
-      <c r="B109" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" t="s">
-        <v>85</v>
-      </c>
-      <c r="D109" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920207</v>
-      </c>
-      <c r="B110" t="s">
-        <v>79</v>
-      </c>
-      <c r="C110" t="s">
-        <v>105</v>
-      </c>
-      <c r="D110" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920207</v>
-      </c>
-      <c r="B111" t="s">
-        <v>79</v>
-      </c>
-      <c r="C111" t="s">
-        <v>105</v>
-      </c>
-      <c r="D111" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920207</v>
-      </c>
-      <c r="B112" t="s">
-        <v>79</v>
-      </c>
-      <c r="C112" t="s">
-        <v>105</v>
-      </c>
-      <c r="D112" t="s">
-        <v>135</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920207</v>
-      </c>
-      <c r="B113" t="s">
-        <v>79</v>
-      </c>
-      <c r="C113" t="s">
-        <v>105</v>
-      </c>
-      <c r="D113" t="s">
-        <v>135</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920207</v>
-      </c>
-      <c r="B114" t="s">
-        <v>79</v>
-      </c>
-      <c r="C114" t="s">
-        <v>105</v>
-      </c>
-      <c r="D114" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920207</v>
-      </c>
-      <c r="B115" t="s">
-        <v>79</v>
-      </c>
-      <c r="C115" t="s">
-        <v>105</v>
-      </c>
-      <c r="D115" t="s">
-        <v>135</v>
-      </c>
-      <c r="E115" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920208</v>
-      </c>
-      <c r="B116" t="s">
-        <v>80</v>
-      </c>
-      <c r="C116" t="s">
-        <v>106</v>
-      </c>
-      <c r="D116" t="s">
-        <v>136</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920208</v>
-      </c>
-      <c r="B117" t="s">
-        <v>80</v>
-      </c>
-      <c r="C117" t="s">
-        <v>106</v>
-      </c>
-      <c r="D117" t="s">
-        <v>136</v>
-      </c>
-      <c r="E117" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920208</v>
-      </c>
-      <c r="B118" t="s">
-        <v>80</v>
-      </c>
-      <c r="C118" t="s">
-        <v>106</v>
-      </c>
-      <c r="D118" t="s">
-        <v>136</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920208</v>
-      </c>
-      <c r="B119" t="s">
-        <v>80</v>
-      </c>
-      <c r="C119" t="s">
-        <v>106</v>
-      </c>
-      <c r="D119" t="s">
-        <v>136</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920208</v>
-      </c>
-      <c r="B120" t="s">
-        <v>80</v>
-      </c>
-      <c r="C120" t="s">
-        <v>106</v>
-      </c>
-      <c r="D120" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920209</v>
-      </c>
-      <c r="B121" t="s">
-        <v>81</v>
-      </c>
-      <c r="C121" t="s">
-        <v>107</v>
-      </c>
-      <c r="D121" t="s">
-        <v>137</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920209</v>
-      </c>
-      <c r="B122" t="s">
-        <v>81</v>
-      </c>
-      <c r="C122" t="s">
-        <v>107</v>
-      </c>
-      <c r="D122" t="s">
-        <v>137</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920209</v>
-      </c>
-      <c r="B123" t="s">
-        <v>81</v>
-      </c>
-      <c r="C123" t="s">
-        <v>107</v>
-      </c>
-      <c r="D123" t="s">
-        <v>137</v>
-      </c>
-      <c r="E123" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920209</v>
-      </c>
-      <c r="B124" t="s">
-        <v>81</v>
-      </c>
-      <c r="C124" t="s">
-        <v>107</v>
-      </c>
-      <c r="D124" t="s">
-        <v>137</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920209</v>
-      </c>
-      <c r="B125" t="s">
-        <v>81</v>
-      </c>
-      <c r="C125" t="s">
-        <v>107</v>
-      </c>
-      <c r="D125" t="s">
-        <v>137</v>
-      </c>
-      <c r="E125" t="s">
-        <v>4</v>
-      </c>
-      <c r="F125" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920210</v>
-      </c>
-      <c r="B126" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" t="s">
-        <v>90</v>
-      </c>
-      <c r="D126" t="s">
-        <v>138</v>
-      </c>
-      <c r="E126" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920210</v>
-      </c>
-      <c r="B127" t="s">
-        <v>82</v>
-      </c>
-      <c r="C127" t="s">
-        <v>90</v>
-      </c>
-      <c r="D127" t="s">
-        <v>138</v>
-      </c>
-      <c r="E127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920210</v>
-      </c>
-      <c r="B128" t="s">
-        <v>82</v>
-      </c>
-      <c r="C128" t="s">
-        <v>90</v>
-      </c>
-      <c r="D128" t="s">
-        <v>138</v>
-      </c>
-      <c r="E128" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920210</v>
-      </c>
-      <c r="B129" t="s">
-        <v>82</v>
-      </c>
-      <c r="C129" t="s">
-        <v>90</v>
-      </c>
-      <c r="D129" t="s">
-        <v>138</v>
-      </c>
-      <c r="E129" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920210</v>
-      </c>
-      <c r="B130" t="s">
-        <v>82</v>
-      </c>
-      <c r="C130" t="s">
-        <v>90</v>
-      </c>
-      <c r="D130" t="s">
-        <v>138</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920210</v>
-      </c>
-      <c r="B131" t="s">
-        <v>82</v>
-      </c>
-      <c r="C131" t="s">
-        <v>90</v>
-      </c>
-      <c r="D131" t="s">
-        <v>138</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920211</v>
-      </c>
-      <c r="B132" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" t="s">
-        <v>108</v>
-      </c>
-      <c r="D132" t="s">
-        <v>139</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920211</v>
-      </c>
-      <c r="B133" t="s">
-        <v>83</v>
-      </c>
-      <c r="C133" t="s">
-        <v>108</v>
-      </c>
-      <c r="D133" t="s">
-        <v>139</v>
-      </c>
-      <c r="E133" t="s">
-        <v>5</v>
-      </c>
-      <c r="F133" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920211</v>
-      </c>
-      <c r="B134" t="s">
-        <v>83</v>
-      </c>
-      <c r="C134" t="s">
-        <v>108</v>
-      </c>
-      <c r="D134" t="s">
-        <v>139</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920211</v>
-      </c>
-      <c r="B135" t="s">
-        <v>83</v>
-      </c>
-      <c r="C135" t="s">
-        <v>108</v>
-      </c>
-      <c r="D135" t="s">
-        <v>139</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920211</v>
-      </c>
-      <c r="B136" t="s">
-        <v>83</v>
-      </c>
-      <c r="C136" t="s">
-        <v>108</v>
-      </c>
-      <c r="D136" t="s">
-        <v>139</v>
-      </c>
-      <c r="E136" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920211</v>
-      </c>
-      <c r="B137" t="s">
-        <v>83</v>
-      </c>
-      <c r="C137" t="s">
-        <v>108</v>
-      </c>
-      <c r="D137" t="s">
-        <v>139</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920212</v>
-      </c>
-      <c r="B138" t="s">
-        <v>84</v>
-      </c>
-      <c r="C138" t="s">
-        <v>109</v>
-      </c>
-      <c r="D138" t="s">
-        <v>140</v>
-      </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920212</v>
-      </c>
-      <c r="B139" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" t="s">
-        <v>109</v>
-      </c>
-      <c r="D139" t="s">
-        <v>140</v>
-      </c>
-      <c r="E139" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920212</v>
-      </c>
-      <c r="B140" t="s">
-        <v>84</v>
-      </c>
-      <c r="C140" t="s">
-        <v>109</v>
-      </c>
-      <c r="D140" t="s">
-        <v>140</v>
-      </c>
-      <c r="E140" t="s">
-        <v>4</v>
-      </c>
-      <c r="F140" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920212</v>
-      </c>
-      <c r="B141" t="s">
-        <v>84</v>
-      </c>
-      <c r="C141" t="s">
-        <v>109</v>
-      </c>
-      <c r="D141" t="s">
-        <v>140</v>
-      </c>
-      <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920212</v>
-      </c>
-      <c r="B142" t="s">
-        <v>84</v>
-      </c>
-      <c r="C142" t="s">
-        <v>109</v>
-      </c>
-      <c r="D142" t="s">
-        <v>140</v>
-      </c>
-      <c r="E142" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920213</v>
-      </c>
-      <c r="B143" t="s">
-        <v>85</v>
-      </c>
-      <c r="C143" t="s">
-        <v>110</v>
-      </c>
-      <c r="D143" t="s">
-        <v>141</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920213</v>
-      </c>
-      <c r="B144" t="s">
-        <v>85</v>
-      </c>
-      <c r="C144" t="s">
-        <v>110</v>
-      </c>
-      <c r="D144" t="s">
-        <v>141</v>
-      </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920213</v>
-      </c>
-      <c r="B145" t="s">
-        <v>85</v>
-      </c>
-      <c r="C145" t="s">
-        <v>110</v>
-      </c>
-      <c r="D145" t="s">
-        <v>141</v>
-      </c>
-      <c r="E145" t="s">
-        <v>5</v>
-      </c>
-      <c r="F145" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920213</v>
-      </c>
-      <c r="B146" t="s">
-        <v>85</v>
-      </c>
-      <c r="C146" t="s">
-        <v>110</v>
-      </c>
-      <c r="D146" t="s">
-        <v>141</v>
-      </c>
-      <c r="E146" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920213</v>
-      </c>
-      <c r="B147" t="s">
-        <v>85</v>
-      </c>
-      <c r="C147" t="s">
-        <v>110</v>
-      </c>
-      <c r="D147" t="s">
-        <v>141</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920213</v>
-      </c>
-      <c r="B148" t="s">
-        <v>85</v>
-      </c>
-      <c r="C148" t="s">
-        <v>110</v>
-      </c>
-      <c r="D148" t="s">
-        <v>141</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920214</v>
-      </c>
-      <c r="B149" t="s">
-        <v>86</v>
-      </c>
-      <c r="C149" t="s">
-        <v>111</v>
-      </c>
-      <c r="D149" t="s">
-        <v>142</v>
-      </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920214</v>
-      </c>
-      <c r="B150" t="s">
-        <v>86</v>
-      </c>
-      <c r="C150" t="s">
-        <v>111</v>
-      </c>
-      <c r="D150" t="s">
-        <v>142</v>
-      </c>
-      <c r="E150" t="s">
-        <v>6</v>
-      </c>
-      <c r="F150" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920214</v>
-      </c>
-      <c r="B151" t="s">
-        <v>86</v>
-      </c>
-      <c r="C151" t="s">
-        <v>111</v>
-      </c>
-      <c r="D151" t="s">
-        <v>142</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>20330051920214</v>
-      </c>
-      <c r="B152" t="s">
-        <v>86</v>
-      </c>
-      <c r="C152" t="s">
-        <v>111</v>
-      </c>
-      <c r="D152" t="s">
-        <v>142</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>20330051920214</v>
-      </c>
-      <c r="B153" t="s">
-        <v>86</v>
-      </c>
-      <c r="C153" t="s">
-        <v>111</v>
-      </c>
-      <c r="D153" t="s">
-        <v>142</v>
-      </c>
-      <c r="E153" t="s">
-        <v>4</v>
-      </c>
-      <c r="F153" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920214</v>
-      </c>
-      <c r="B154" t="s">
-        <v>86</v>
-      </c>
-      <c r="C154" t="s">
-        <v>111</v>
-      </c>
-      <c r="D154" t="s">
-        <v>142</v>
-      </c>
-      <c r="E154" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920215</v>
-      </c>
-      <c r="B155" t="s">
-        <v>86</v>
-      </c>
-      <c r="C155" t="s">
-        <v>112</v>
-      </c>
-      <c r="D155" t="s">
-        <v>143</v>
-      </c>
-      <c r="E155" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920215</v>
-      </c>
-      <c r="B156" t="s">
-        <v>86</v>
-      </c>
-      <c r="C156" t="s">
-        <v>112</v>
-      </c>
-      <c r="D156" t="s">
-        <v>143</v>
-      </c>
-      <c r="E156" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920215</v>
-      </c>
-      <c r="B157" t="s">
-        <v>86</v>
-      </c>
-      <c r="C157" t="s">
-        <v>112</v>
-      </c>
-      <c r="D157" t="s">
-        <v>143</v>
-      </c>
-      <c r="E157" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920215</v>
-      </c>
-      <c r="B158" t="s">
-        <v>86</v>
-      </c>
-      <c r="C158" t="s">
-        <v>112</v>
-      </c>
-      <c r="D158" t="s">
-        <v>143</v>
-      </c>
-      <c r="E158" t="s">
-        <v>7</v>
-      </c>
-      <c r="F158" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920215</v>
-      </c>
-      <c r="B159" t="s">
-        <v>86</v>
-      </c>
-      <c r="C159" t="s">
-        <v>112</v>
-      </c>
-      <c r="D159" t="s">
-        <v>143</v>
-      </c>
-      <c r="E159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>20330051920215</v>
-      </c>
-      <c r="B160" t="s">
-        <v>86</v>
-      </c>
-      <c r="C160" t="s">
-        <v>112</v>
-      </c>
-      <c r="D160" t="s">
-        <v>143</v>
-      </c>
-      <c r="E160" t="s">
-        <v>6</v>
-      </c>
-      <c r="F160" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>20330051920216</v>
-      </c>
-      <c r="B161" t="s">
-        <v>87</v>
-      </c>
-      <c r="C161" t="s">
-        <v>113</v>
-      </c>
-      <c r="D161" t="s">
-        <v>144</v>
-      </c>
-      <c r="E161" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>20330051920216</v>
-      </c>
-      <c r="B162" t="s">
-        <v>87</v>
-      </c>
-      <c r="C162" t="s">
-        <v>113</v>
-      </c>
-      <c r="D162" t="s">
-        <v>144</v>
-      </c>
-      <c r="E162" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>20330051920216</v>
-      </c>
-      <c r="B163" t="s">
-        <v>87</v>
-      </c>
-      <c r="C163" t="s">
-        <v>113</v>
-      </c>
-      <c r="D163" t="s">
-        <v>144</v>
-      </c>
-      <c r="E163" t="s">
-        <v>5</v>
-      </c>
-      <c r="F163" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>20330051920216</v>
-      </c>
-      <c r="B164" t="s">
-        <v>87</v>
-      </c>
-      <c r="C164" t="s">
-        <v>113</v>
-      </c>
-      <c r="D164" t="s">
-        <v>144</v>
-      </c>
-      <c r="E164" t="s">
-        <v>4</v>
-      </c>
-      <c r="F164" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>20330051920216</v>
-      </c>
-      <c r="B165" t="s">
-        <v>87</v>
-      </c>
-      <c r="C165" t="s">
-        <v>113</v>
-      </c>
-      <c r="D165" t="s">
-        <v>144</v>
-      </c>
-      <c r="E165" t="s">
-        <v>6</v>
-      </c>
-      <c r="F165" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>20330051920216</v>
-      </c>
-      <c r="B166" t="s">
-        <v>87</v>
-      </c>
-      <c r="C166" t="s">
-        <v>113</v>
-      </c>
-      <c r="D166" t="s">
-        <v>144</v>
-      </c>
-      <c r="E166" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>20330051920217</v>
-      </c>
-      <c r="B167" t="s">
-        <v>86</v>
-      </c>
-      <c r="C167" t="s">
-        <v>114</v>
-      </c>
-      <c r="D167" t="s">
-        <v>145</v>
-      </c>
-      <c r="E167" t="s">
-        <v>7</v>
-      </c>
-      <c r="F167" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>20330051920217</v>
-      </c>
-      <c r="B168" t="s">
-        <v>86</v>
-      </c>
-      <c r="C168" t="s">
-        <v>114</v>
-      </c>
-      <c r="D168" t="s">
-        <v>145</v>
-      </c>
-      <c r="E168" t="s">
-        <v>5</v>
-      </c>
-      <c r="F168" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>20330051920217</v>
-      </c>
-      <c r="B169" t="s">
-        <v>86</v>
-      </c>
-      <c r="C169" t="s">
-        <v>114</v>
-      </c>
-      <c r="D169" t="s">
-        <v>145</v>
-      </c>
-      <c r="E169" t="s">
-        <v>4</v>
-      </c>
-      <c r="F169" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>20330051920217</v>
-      </c>
-      <c r="B170" t="s">
-        <v>86</v>
-      </c>
-      <c r="C170" t="s">
-        <v>114</v>
-      </c>
-      <c r="D170" t="s">
-        <v>145</v>
-      </c>
-      <c r="E170" t="s">
-        <v>6</v>
-      </c>
-      <c r="F170" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>20330051920217</v>
-      </c>
-      <c r="B171" t="s">
-        <v>86</v>
-      </c>
-      <c r="C171" t="s">
-        <v>114</v>
-      </c>
-      <c r="D171" t="s">
-        <v>145</v>
-      </c>
-      <c r="E171" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>20330051920217</v>
-      </c>
-      <c r="B172" t="s">
-        <v>86</v>
-      </c>
-      <c r="C172" t="s">
-        <v>114</v>
-      </c>
-      <c r="D172" t="s">
-        <v>145</v>
-      </c>
-      <c r="E172" t="s">
-        <v>8</v>
-      </c>
-      <c r="F172" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>20330051920218</v>
-      </c>
-      <c r="B173" t="s">
-        <v>88</v>
-      </c>
-      <c r="C173" t="s">
-        <v>109</v>
-      </c>
-      <c r="D173" t="s">
-        <v>146</v>
-      </c>
-      <c r="E173" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>20330051920218</v>
-      </c>
-      <c r="B174" t="s">
-        <v>88</v>
-      </c>
-      <c r="C174" t="s">
-        <v>109</v>
-      </c>
-      <c r="D174" t="s">
-        <v>146</v>
-      </c>
-      <c r="E174" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>20330051920218</v>
-      </c>
-      <c r="B175" t="s">
-        <v>88</v>
-      </c>
-      <c r="C175" t="s">
-        <v>109</v>
-      </c>
-      <c r="D175" t="s">
-        <v>146</v>
-      </c>
-      <c r="E175" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>20330051920218</v>
-      </c>
-      <c r="B176" t="s">
-        <v>88</v>
-      </c>
-      <c r="C176" t="s">
-        <v>109</v>
-      </c>
-      <c r="D176" t="s">
-        <v>146</v>
-      </c>
-      <c r="E176" t="s">
-        <v>9</v>
-      </c>
-      <c r="F176" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>20330051920218</v>
-      </c>
-      <c r="B177" t="s">
-        <v>88</v>
-      </c>
-      <c r="C177" t="s">
-        <v>109</v>
-      </c>
-      <c r="D177" t="s">
-        <v>146</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>20330051920218</v>
-      </c>
-      <c r="B178" t="s">
-        <v>88</v>
-      </c>
-      <c r="C178" t="s">
-        <v>109</v>
-      </c>
-      <c r="D178" t="s">
-        <v>146</v>
-      </c>
-      <c r="E178" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>20330051920219</v>
-      </c>
-      <c r="B179" t="s">
-        <v>89</v>
-      </c>
-      <c r="C179" t="s">
-        <v>115</v>
-      </c>
-      <c r="D179" t="s">
-        <v>147</v>
-      </c>
-      <c r="E179" t="s">
-        <v>7</v>
-      </c>
-      <c r="F179" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>20330051920219</v>
-      </c>
-      <c r="B180" t="s">
-        <v>89</v>
-      </c>
-      <c r="C180" t="s">
-        <v>115</v>
-      </c>
-      <c r="D180" t="s">
-        <v>147</v>
-      </c>
-      <c r="E180" t="s">
-        <v>8</v>
-      </c>
-      <c r="F180" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>20330051920219</v>
-      </c>
-      <c r="B181" t="s">
-        <v>89</v>
-      </c>
-      <c r="C181" t="s">
-        <v>115</v>
-      </c>
-      <c r="D181" t="s">
-        <v>147</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>20330051920219</v>
-      </c>
-      <c r="B182" t="s">
-        <v>89</v>
-      </c>
-      <c r="C182" t="s">
-        <v>115</v>
-      </c>
-      <c r="D182" t="s">
-        <v>147</v>
-      </c>
-      <c r="E182" t="s">
-        <v>6</v>
-      </c>
-      <c r="F182" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>20330051920219</v>
-      </c>
-      <c r="B183" t="s">
-        <v>89</v>
-      </c>
-      <c r="C183" t="s">
-        <v>115</v>
-      </c>
-      <c r="D183" t="s">
-        <v>147</v>
-      </c>
-      <c r="E183" t="s">
-        <v>5</v>
-      </c>
-      <c r="F183" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>20330051920219</v>
-      </c>
-      <c r="B184" t="s">
-        <v>89</v>
-      </c>
-      <c r="C184" t="s">
-        <v>115</v>
-      </c>
-      <c r="D184" t="s">
-        <v>147</v>
-      </c>
-      <c r="E184" t="s">
-        <v>4</v>
-      </c>
-      <c r="F184" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -6749,67 +5063,67 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920204</v>
+        <v>20330051920392</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920205</v>
+        <v>20330051920204</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920207</v>
+        <v>20330051920205</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920190</v>
+        <v>20330051920207</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -6817,16 +5131,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920392</v>
+        <v>20330051920213</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -6834,84 +5148,84 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920194</v>
+        <v>20330051920190</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920196</v>
+        <v>20330051920193</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920213</v>
+        <v>20330051920194</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920214</v>
+        <v>20330051920198</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920193</v>
+        <v>20330051920202</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -6936,16 +5250,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920215</v>
+        <v>20330051920214</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -6953,19 +5267,19 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920198</v>
+        <v>20330051920215</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6982,313 +5296,313 @@
         <v>118</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920200</v>
+        <v>20330051920196</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920211</v>
+        <v>20330051920201</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920218</v>
+        <v>20330051920210</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920210</v>
+        <v>20330051920218</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17330051920305</v>
+        <v>20330051920192</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920192</v>
+        <v>20330051920197</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920197</v>
+        <v>20330051920199</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920199</v>
+        <v>20330051920200</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920201</v>
+        <v>19330051920280</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920280</v>
+        <v>20330051920206</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920202</v>
+        <v>20330051920208</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920206</v>
+        <v>20330051920209</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920208</v>
+        <v>20330051920211</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920209</v>
+        <v>20330051920212</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920212</v>
+        <v>20330051920216</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920216</v>
+        <v>20330051920217</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920217</v>
+        <v>20330051920219</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920219</v>
+        <v>17330051920305</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7298,7 +5612,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7328,53 +5642,628 @@
         <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>17330051920305</v>
+        <v>20330051920192</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
+        <v>20330051920192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920199</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920280</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920280</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920206</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920209</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920211</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20330051920212</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20330051920216</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20330051920216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>20330051920217</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>20330051920217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>20330051920219</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>20330051920219</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
         <v>17330051920305</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C28" t="s">
         <v>91</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2ALCV - Estadisticos 2020.xlsx
+++ b/grupos/2ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="148">
   <si>
     <t>Materia</t>
   </si>
@@ -176,21 +176,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Medina Tolentino Francisco</t>
+  </si>
+  <si>
+    <t>Santiago Hernández Mariana</t>
+  </si>
+  <si>
+    <t>Flores Ovalle Victor</t>
+  </si>
+  <si>
+    <t>Contreras Díaz Irma Ivette</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Santiago Hernández Mariana</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Francisco</t>
-  </si>
-  <si>
-    <t>Flores Ovalle Victor</t>
-  </si>
-  <si>
-    <t>Contreras Díaz Irma Ivette</t>
-  </si>
-  <si>
     <t>Villanueva Morales Luis Arturo</t>
   </si>
   <si>
@@ -209,114 +209,192 @@
     <t>ASCENCION</t>
   </si>
   <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CEREZO</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>OLIVERA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>DAMIEN</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>REYNA ARISBETH</t>
+  </si>
+  <si>
+    <t>ANALI</t>
+  </si>
+  <si>
+    <t>DULCE FERNANDA</t>
+  </si>
+  <si>
+    <t>SILVIA ANGELICA</t>
+  </si>
+  <si>
+    <t>KITZIA YAMILET</t>
+  </si>
+  <si>
+    <t>ERICK DE JESUS</t>
+  </si>
+  <si>
+    <t>AMARELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>SHADAI COSTANTIN</t>
+  </si>
+  <si>
+    <t>CRISTHIAN</t>
+  </si>
+  <si>
+    <t>CLARET YAZMIN</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t>SUSANA</t>
+  </si>
+  <si>
+    <t>ALEJANDRA</t>
+  </si>
+  <si>
+    <t>AMADA ARELY</t>
+  </si>
+  <si>
+    <t>ALISSON FERNANDA</t>
+  </si>
+  <si>
     <t>ARELLANO</t>
   </si>
   <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
     <t>BALTAZARES</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CEREZO</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
     <t>ESPERON</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>GALVEZ</t>
   </si>
   <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
     <t>MELENDEZ</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>MUÑOZ</t>
   </si>
   <si>
     <t>PEÑA</t>
   </si>
   <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
     <t>ROSAS</t>
   </si>
   <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>SANTIAGO</t>
   </si>
   <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
     <t>VELAZQUEZ</t>
   </si>
   <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
     <t>NARANJO</t>
   </si>
   <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
     <t>CONTRERAS</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
     <t>MORA</t>
   </si>
   <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
     <t>VILLEGAS</t>
   </si>
   <si>
@@ -326,18 +404,6 @@
     <t>TREJO</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>OLIVERA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>DAMIEN</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
@@ -347,18 +413,6 @@
     <t>GASPAR</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>ZACARIAS</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>LUNA</t>
   </si>
   <si>
@@ -368,97 +422,43 @@
     <t>GALEOTE</t>
   </si>
   <si>
-    <t>REYNA ARISBETH</t>
-  </si>
-  <si>
     <t>MARGARITA JAZMIN</t>
   </si>
   <si>
-    <t>ANALI</t>
-  </si>
-  <si>
     <t>JOCELYN</t>
   </si>
   <si>
-    <t>DULCE FERNANDA</t>
-  </si>
-  <si>
-    <t>SILVIA ANGELICA</t>
-  </si>
-  <si>
-    <t>KITZIA YAMILET</t>
-  </si>
-  <si>
-    <t>ERICK DE JESUS</t>
-  </si>
-  <si>
     <t>MIA VALENTINA</t>
   </si>
   <si>
-    <t>AMARELY GUADALUPE</t>
-  </si>
-  <si>
     <t>FRIDA SOFIA</t>
   </si>
   <si>
     <t>ANTONIO ABIDAN</t>
   </si>
   <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
     <t>MILAGROS</t>
   </si>
   <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>SHADAI COSTANTIN</t>
-  </si>
-  <si>
-    <t>CRISTHIAN</t>
-  </si>
-  <si>
-    <t>CLARET YAZMIN</t>
-  </si>
-  <si>
     <t>MARITZA JULIANA</t>
   </si>
   <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
     <t>LESLIE</t>
   </si>
   <si>
     <t>YEILI DAYNERIS</t>
   </si>
   <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
     <t>DIANA SARAY</t>
   </si>
   <si>
     <t>INGRID SARAI</t>
   </si>
   <si>
-    <t>SUSANA</t>
-  </si>
-  <si>
-    <t>ALEJANDRA</t>
-  </si>
-  <si>
-    <t>AMADA ARELY</t>
-  </si>
-  <si>
     <t>MARIA XIMENA</t>
   </si>
   <si>
     <t>LUIS DIEGO</t>
-  </si>
-  <si>
-    <t>ALISSON FERNANDA</t>
   </si>
   <si>
     <t>EMILY</t>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -965,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -974,7 +974,7 @@
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <v>9</v>
@@ -1006,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1083,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>9</v>
@@ -1092,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -1319,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -1328,7 +1328,7 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>7</v>
@@ -1378,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -1419,7 +1419,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1505,7 +1505,7 @@
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -1555,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L15">
         <v>9</v>
@@ -1596,7 +1596,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1623,7 +1623,7 @@
         <v>-1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -1673,7 +1673,7 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -1682,7 +1682,7 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>8</v>
@@ -1732,7 +1732,7 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>8</v>
@@ -1741,7 +1741,7 @@
         <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>8</v>
@@ -1791,7 +1791,7 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>7</v>
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L19">
         <v>7</v>
@@ -1850,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -1859,7 +1859,7 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
         <v>9</v>
@@ -1909,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -1918,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -1950,7 +1950,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -2027,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -2036,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>8</v>
@@ -2068,7 +2068,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -2145,7 +2145,7 @@
         <v>8</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>8</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L25">
         <v>7</v>
@@ -2204,7 +2204,7 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L26">
         <v>9</v>
@@ -2263,7 +2263,7 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <v>8</v>
@@ -2272,7 +2272,7 @@
         <v>-1</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L27">
         <v>9</v>
@@ -2322,7 +2322,7 @@
         <v>8</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -2331,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>9</v>
@@ -2363,7 +2363,7 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -2390,7 +2390,7 @@
         <v>-1</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -2422,7 +2422,7 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -2440,7 +2440,7 @@
         <v>9</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <v>8</v>
@@ -2449,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L30">
         <v>9</v>
@@ -2617,7 +2617,7 @@
         <v>9</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I33">
         <v>8</v>
@@ -2626,7 +2626,7 @@
         <v>8</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L33">
         <v>9</v>
@@ -2676,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I34">
         <v>10</v>
@@ -2685,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L34">
         <v>9</v>
@@ -2735,7 +2735,7 @@
         <v>9</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I35">
         <v>9</v>
@@ -2744,7 +2744,7 @@
         <v>9</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L35">
         <v>9</v>
@@ -2826,31 +2826,34 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>41.94</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>22.58</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2864,118 +2867,121 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>48.39</v>
       </c>
       <c r="G3">
-        <v>77.42</v>
+        <v>51.61</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
       <c r="F4">
-        <v>41.94</v>
+        <v>59.38</v>
       </c>
       <c r="G4">
-        <v>22.58</v>
+        <v>40.63</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J4">
-        <v>58.06</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>59.38</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="G5">
-        <v>40.63</v>
+        <v>32.26</v>
       </c>
       <c r="H5">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>40.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>67.73999999999999</v>
+        <v>68.75</v>
       </c>
       <c r="G6">
-        <v>32.26</v>
+        <v>6.25</v>
       </c>
       <c r="H6">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3017,7 +3023,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3055,16 +3061,16 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3075,16 +3081,16 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3095,16 +3101,16 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3115,10 +3121,10 @@
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -3129,19 +3135,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>17330051920305</v>
+        <v>20330051920191</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
@@ -3149,96 +3155,96 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920191</v>
+        <v>20330051920193</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920191</v>
+        <v>20330051920193</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920191</v>
+        <v>20330051920193</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920192</v>
+        <v>20330051920193</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920192</v>
+        <v>20330051920392</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -3249,96 +3255,96 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920193</v>
+        <v>20330051920392</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920193</v>
+        <v>20330051920392</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920193</v>
+        <v>20330051920392</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920193</v>
+        <v>20330051920392</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920392</v>
+        <v>20330051920194</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -3349,39 +3355,39 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920392</v>
+        <v>20330051920194</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920392</v>
+        <v>20330051920194</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
@@ -3389,56 +3395,56 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920392</v>
+        <v>20330051920194</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920392</v>
+        <v>20330051920196</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920194</v>
+        <v>20330051920196</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -3449,19 +3455,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920194</v>
+        <v>20330051920198</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
@@ -3469,179 +3475,179 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920194</v>
+        <v>20330051920198</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920194</v>
+        <v>20330051920201</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920196</v>
+        <v>20330051920202</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920196</v>
+        <v>20330051920202</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920196</v>
+        <v>20330051920203</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920197</v>
+        <v>20330051920203</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920197</v>
+        <v>20330051920203</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920198</v>
+        <v>20330051920204</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920198</v>
+        <v>20330051920204</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
@@ -3649,56 +3655,56 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920198</v>
+        <v>20330051920204</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920198</v>
+        <v>20330051920204</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920199</v>
+        <v>20330051920204</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -3709,96 +3715,96 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920199</v>
+        <v>20330051920205</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920200</v>
+        <v>20330051920205</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920200</v>
+        <v>20330051920205</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920201</v>
+        <v>20330051920205</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920201</v>
+        <v>20330051920205</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -3809,19 +3815,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920201</v>
+        <v>20330051920207</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
         <v>52</v>
@@ -3829,99 +3835,99 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920280</v>
+        <v>20330051920207</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920280</v>
+        <v>20330051920207</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920202</v>
+        <v>20330051920207</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920202</v>
+        <v>20330051920207</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920202</v>
+        <v>20330051920210</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
         <v>52</v>
@@ -3929,219 +3935,219 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920202</v>
+        <v>20330051920213</v>
       </c>
       <c r="B46" t="s">
         <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920203</v>
+        <v>20330051920213</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920203</v>
+        <v>20330051920213</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920203</v>
+        <v>20330051920213</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920203</v>
+        <v>20330051920214</v>
       </c>
       <c r="B50" t="s">
         <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920204</v>
+        <v>20330051920214</v>
       </c>
       <c r="B51" t="s">
         <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920204</v>
+        <v>20330051920214</v>
       </c>
       <c r="B52" t="s">
         <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920204</v>
+        <v>20330051920214</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920204</v>
+        <v>20330051920215</v>
       </c>
       <c r="B54" t="s">
         <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920204</v>
+        <v>20330051920215</v>
       </c>
       <c r="B55" t="s">
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920205</v>
+        <v>20330051920215</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
         <v>52</v>
@@ -4149,882 +4155,62 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920205</v>
+        <v>20330051920215</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920205</v>
+        <v>20330051920218</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920205</v>
+        <v>20330051920218</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920205</v>
-      </c>
-      <c r="B60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920206</v>
-      </c>
-      <c r="B61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920206</v>
-      </c>
-      <c r="B62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920207</v>
-      </c>
-      <c r="B63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920207</v>
-      </c>
-      <c r="B64" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920207</v>
-      </c>
-      <c r="B65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" t="s">
-        <v>135</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920207</v>
-      </c>
-      <c r="B66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920207</v>
-      </c>
-      <c r="B67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920208</v>
-      </c>
-      <c r="B68" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920208</v>
-      </c>
-      <c r="B69" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920209</v>
-      </c>
-      <c r="B70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920209</v>
-      </c>
-      <c r="B71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920210</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920210</v>
-      </c>
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" t="s">
-        <v>138</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920210</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" t="s">
-        <v>138</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920211</v>
-      </c>
-      <c r="B75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" t="s">
-        <v>139</v>
-      </c>
-      <c r="E75" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920211</v>
-      </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" t="s">
-        <v>139</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920212</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920212</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920213</v>
-      </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" t="s">
-        <v>141</v>
-      </c>
-      <c r="E79" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920213</v>
-      </c>
-      <c r="B80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" t="s">
-        <v>110</v>
-      </c>
-      <c r="D80" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920213</v>
-      </c>
-      <c r="B81" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920213</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" t="s">
-        <v>141</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920213</v>
-      </c>
-      <c r="B83" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920214</v>
-      </c>
-      <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920214</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920214</v>
-      </c>
-      <c r="B86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86" t="s">
-        <v>142</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920214</v>
-      </c>
-      <c r="B87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" t="s">
-        <v>111</v>
-      </c>
-      <c r="D87" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920215</v>
-      </c>
-      <c r="B88" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" t="s">
-        <v>143</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920215</v>
-      </c>
-      <c r="B89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" t="s">
-        <v>112</v>
-      </c>
-      <c r="D89" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920215</v>
-      </c>
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" t="s">
-        <v>112</v>
-      </c>
-      <c r="D90" t="s">
-        <v>143</v>
-      </c>
-      <c r="E90" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920215</v>
-      </c>
-      <c r="B91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" t="s">
-        <v>143</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920216</v>
-      </c>
-      <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92" t="s">
-        <v>144</v>
-      </c>
-      <c r="E92" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920216</v>
-      </c>
-      <c r="B93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D93" t="s">
-        <v>144</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920217</v>
-      </c>
-      <c r="B94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" t="s">
-        <v>145</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920217</v>
-      </c>
-      <c r="B95" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" t="s">
-        <v>114</v>
-      </c>
-      <c r="D95" t="s">
-        <v>145</v>
-      </c>
-      <c r="E95" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920218</v>
-      </c>
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" t="s">
-        <v>109</v>
-      </c>
-      <c r="D96" t="s">
-        <v>146</v>
-      </c>
-      <c r="E96" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920218</v>
-      </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97" t="s">
-        <v>146</v>
-      </c>
-      <c r="E97" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920218</v>
-      </c>
-      <c r="B98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" t="s">
-        <v>109</v>
-      </c>
-      <c r="D98" t="s">
-        <v>146</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920219</v>
-      </c>
-      <c r="B99" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" t="s">
-        <v>147</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920219</v>
-      </c>
-      <c r="B100" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" t="s">
-        <v>115</v>
-      </c>
-      <c r="D100" t="s">
-        <v>147</v>
-      </c>
-      <c r="E100" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5066,13 +4252,13 @@
         <v>20330051920392</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -5083,13 +4269,13 @@
         <v>20330051920204</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
         <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5100,13 +4286,13 @@
         <v>20330051920205</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
         <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>133</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -5117,13 +4303,13 @@
         <v>20330051920207</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
         <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -5131,33 +4317,33 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920213</v>
+        <v>20330051920190</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920190</v>
+        <v>20330051920193</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -5165,16 +4351,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920193</v>
+        <v>20330051920194</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -5182,16 +4368,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920194</v>
+        <v>20330051920213</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -5199,16 +4385,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920198</v>
+        <v>20330051920214</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -5216,16 +4402,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920202</v>
+        <v>20330051920215</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -5236,373 +4422,373 @@
         <v>20330051920203</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
         <v>102</v>
       </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920214</v>
+        <v>20330051920196</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920215</v>
+        <v>20330051920198</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920191</v>
+        <v>20330051920202</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920196</v>
+        <v>20330051920218</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920201</v>
+        <v>20330051920191</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920210</v>
+        <v>20330051920201</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920218</v>
+        <v>20330051920210</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920192</v>
+        <v>17330051920305</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920197</v>
+        <v>20330051920192</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920199</v>
+        <v>20330051920197</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920200</v>
+        <v>20330051920199</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920280</v>
+        <v>20330051920200</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920206</v>
+        <v>19330051920280</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920208</v>
+        <v>20330051920206</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920209</v>
+        <v>20330051920208</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920211</v>
+        <v>20330051920209</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920212</v>
+        <v>20330051920211</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920216</v>
+        <v>20330051920212</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>144</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920217</v>
+        <v>20330051920216</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
         <v>145</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920219</v>
+        <v>20330051920217</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>17330051920305</v>
+        <v>20330051920219</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5612,7 +4798,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5647,16 +4833,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920192</v>
+        <v>20330051920191</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -5665,24 +4851,24 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920192</v>
+        <v>20330051920191</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -5693,22 +4879,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920197</v>
+        <v>20330051920202</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5716,22 +4902,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920197</v>
+        <v>20330051920202</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5739,16 +4925,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920199</v>
+        <v>20330051920218</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -5762,19 +4948,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920199</v>
+        <v>20330051920218</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -5788,13 +4974,13 @@
         <v>20330051920200</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5803,24 +4989,24 @@
         <v>53</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920200</v>
+        <v>20330051920201</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
@@ -5831,438 +5017,24 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920280</v>
+        <v>20330051920210</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920280</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920206</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920206</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920208</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920208</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920209</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920209</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920211</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920211</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920212</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920212</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920216</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920216</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920217</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920217</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920219</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>20330051920219</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>17330051920305</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/2ALCV - Estadisticos 2020.xlsx
+++ b/grupos/2ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="148">
   <si>
     <t>Materia</t>
   </si>
@@ -176,24 +176,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Santiago Hernández Mariana</t>
+  </si>
+  <si>
+    <t>Flores Ovalle Victor</t>
+  </si>
+  <si>
+    <t>Contreras Díaz Irma Ivette</t>
+  </si>
+  <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
+    <t>Villanueva Morales Luis Arturo</t>
+  </si>
+  <si>
     <t>Medina Tolentino Francisco</t>
   </si>
   <si>
-    <t>Santiago Hernández Mariana</t>
-  </si>
-  <si>
-    <t>Flores Ovalle Victor</t>
-  </si>
-  <si>
-    <t>Contreras Díaz Irma Ivette</t>
-  </si>
-  <si>
-    <t>García Sánchez Magda Bexabe</t>
-  </si>
-  <si>
-    <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -209,244 +209,244 @@
     <t>ASCENCION</t>
   </si>
   <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CEREZO</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>OLIVERA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>DAMIEN</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>REYNA ARISBETH</t>
+  </si>
+  <si>
+    <t>DULCE FERNANDA</t>
+  </si>
+  <si>
+    <t>SILVIA ANGELICA</t>
+  </si>
+  <si>
+    <t>KITZIA YAMILET</t>
+  </si>
+  <si>
+    <t>ERICK DE JESUS</t>
+  </si>
+  <si>
+    <t>AMARELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>SHADAI COSTANTIN</t>
+  </si>
+  <si>
+    <t>CRISTHIAN</t>
+  </si>
+  <si>
+    <t>CLARET YAZMIN</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>SUSANA</t>
+  </si>
+  <si>
+    <t>ALEJANDRA</t>
+  </si>
+  <si>
+    <t>AMADA ARELY</t>
+  </si>
+  <si>
+    <t>ALISSON FERNANDA</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CEREZO</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>MORALES</t>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
+    <t>ESPERON</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MELENDEZ</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
   </si>
   <si>
     <t>ROBLES</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>NARANJO</t>
   </si>
   <si>
     <t>BARRAGAN</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>OLIVERA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>DAMIEN</t>
-  </si>
-  <si>
-    <t>ZACARIAS</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>REYNA ARISBETH</t>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>MARGARITA JAZMIN</t>
   </si>
   <si>
     <t>ANALI</t>
   </si>
   <si>
-    <t>DULCE FERNANDA</t>
-  </si>
-  <si>
-    <t>SILVIA ANGELICA</t>
-  </si>
-  <si>
-    <t>KITZIA YAMILET</t>
-  </si>
-  <si>
-    <t>ERICK DE JESUS</t>
-  </si>
-  <si>
-    <t>AMARELY GUADALUPE</t>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>MIA VALENTINA</t>
+  </si>
+  <si>
+    <t>FRIDA SOFIA</t>
+  </si>
+  <si>
+    <t>ANTONIO ABIDAN</t>
   </si>
   <si>
     <t>YAMILET</t>
   </si>
   <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>SHADAI COSTANTIN</t>
-  </si>
-  <si>
-    <t>CRISTHIAN</t>
-  </si>
-  <si>
-    <t>CLARET YAZMIN</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
+    <t>MILAGROS</t>
+  </si>
+  <si>
+    <t>MARITZA JULIANA</t>
+  </si>
+  <si>
+    <t>LESLIE</t>
+  </si>
+  <si>
+    <t>YEILI DAYNERIS</t>
   </si>
   <si>
     <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>SUSANA</t>
-  </si>
-  <si>
-    <t>ALEJANDRA</t>
-  </si>
-  <si>
-    <t>AMADA ARELY</t>
-  </si>
-  <si>
-    <t>ALISSON FERNANDA</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>BALTAZARES</t>
-  </si>
-  <si>
-    <t>ESPERON</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>MELENDEZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>PEÑA</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>NARANJO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>MARGARITA JAZMIN</t>
-  </si>
-  <si>
-    <t>JOCELYN</t>
-  </si>
-  <si>
-    <t>MIA VALENTINA</t>
-  </si>
-  <si>
-    <t>FRIDA SOFIA</t>
-  </si>
-  <si>
-    <t>ANTONIO ABIDAN</t>
-  </si>
-  <si>
-    <t>MILAGROS</t>
-  </si>
-  <si>
-    <t>MARITZA JULIANA</t>
-  </si>
-  <si>
-    <t>LESLIE</t>
-  </si>
-  <si>
-    <t>YEILI DAYNERIS</t>
   </si>
   <si>
     <t>DIANA SARAY</t>
@@ -971,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -1012,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -1030,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1148,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1189,7 +1189,7 @@
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -1207,7 +1207,7 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <v>-1</v>
@@ -1248,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -1325,7 +1325,7 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <v>6</v>
@@ -1366,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -1425,7 +1425,7 @@
         <v>-1</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1443,7 +1443,7 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1502,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -1602,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -1620,7 +1620,7 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -1856,7 +1856,7 @@
         <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -1956,7 +1956,7 @@
         <v>-1</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -1974,7 +1974,7 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K22">
         <v>-1</v>
@@ -2074,7 +2074,7 @@
         <v>-1</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -2092,7 +2092,7 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -2269,7 +2269,7 @@
         <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -2369,7 +2369,7 @@
         <v>-1</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -2387,7 +2387,7 @@
         <v>-1</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K29">
         <v>6</v>
@@ -2505,7 +2505,7 @@
         <v>6</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K31">
         <v>-1</v>
@@ -2546,7 +2546,7 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>-1</v>
@@ -2564,7 +2564,7 @@
         <v>6</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K32">
         <v>-1</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -2835,158 +2835,158 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>41.94</v>
+        <v>48.39</v>
       </c>
       <c r="G2">
-        <v>22.58</v>
+        <v>51.61</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>58.06</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>48.39</v>
+        <v>59.38</v>
       </c>
       <c r="G3">
-        <v>51.61</v>
+        <v>40.63</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>38.71</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>59.38</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="G4">
-        <v>40.63</v>
+        <v>32.26</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>40.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>67.73999999999999</v>
+        <v>68.75</v>
       </c>
       <c r="G5">
-        <v>32.26</v>
+        <v>6.25</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>68.75</v>
+        <v>83.87</v>
       </c>
       <c r="G6">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>31.25</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -2995,25 +2995,25 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>83.87</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>16.13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3023,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3061,16 +3061,16 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3081,13 +3081,13 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -3101,33 +3101,33 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920190</v>
+        <v>20330051920193</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -3135,22 +3135,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920191</v>
+        <v>20330051920193</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3158,76 +3158,76 @@
         <v>20330051920193</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920193</v>
+        <v>20330051920392</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920193</v>
+        <v>20330051920392</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920193</v>
+        <v>20330051920392</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
@@ -3238,16 +3238,16 @@
         <v>20330051920392</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -3255,99 +3255,99 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920392</v>
+        <v>20330051920194</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920392</v>
+        <v>20330051920194</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920392</v>
+        <v>20330051920194</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920392</v>
+        <v>20330051920196</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920194</v>
+        <v>20330051920198</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
@@ -3355,79 +3355,79 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920194</v>
+        <v>20330051920202</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920194</v>
+        <v>20330051920203</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
         <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920194</v>
+        <v>20330051920203</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920196</v>
+        <v>20330051920204</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
         <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>52</v>
@@ -3435,159 +3435,159 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920196</v>
+        <v>20330051920204</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920198</v>
+        <v>20330051920204</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920198</v>
+        <v>20330051920204</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920201</v>
+        <v>20330051920205</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920202</v>
+        <v>20330051920205</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920202</v>
+        <v>20330051920205</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920203</v>
+        <v>20330051920205</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920203</v>
+        <v>20330051920207</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
@@ -3595,79 +3595,79 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920203</v>
+        <v>20330051920207</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920204</v>
+        <v>20330051920207</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920204</v>
+        <v>20330051920207</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920204</v>
+        <v>20330051920213</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
         <v>56</v>
@@ -3675,139 +3675,139 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920204</v>
+        <v>20330051920213</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920204</v>
+        <v>20330051920213</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920205</v>
+        <v>20330051920214</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920205</v>
+        <v>20330051920214</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920205</v>
+        <v>20330051920214</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920205</v>
+        <v>20330051920215</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920205</v>
+        <v>20330051920215</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>53</v>
@@ -3815,19 +3815,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920207</v>
+        <v>20330051920215</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>52</v>
@@ -3835,381 +3835,21 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920207</v>
+        <v>20330051920218</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>20330051920207</v>
-      </c>
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>20330051920207</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>20330051920207</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>20330051920210</v>
-      </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>20330051920213</v>
-      </c>
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>20330051920213</v>
-      </c>
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>20330051920213</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>20330051920213</v>
-      </c>
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>20330051920214</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>20330051920214</v>
-      </c>
-      <c r="B51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>20330051920214</v>
-      </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>20330051920214</v>
-      </c>
-      <c r="B53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>20330051920215</v>
-      </c>
-      <c r="B54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920215</v>
-      </c>
-      <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920215</v>
-      </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920215</v>
-      </c>
-      <c r="B57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920218</v>
-      </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920218</v>
-      </c>
-      <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4252,16 +3892,16 @@
         <v>20330051920392</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4269,16 +3909,16 @@
         <v>20330051920204</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4286,16 +3926,16 @@
         <v>20330051920205</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4303,16 +3943,16 @@
         <v>20330051920207</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4323,13 +3963,13 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4337,16 +3977,16 @@
         <v>20330051920193</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4354,16 +3994,16 @@
         <v>20330051920194</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4371,16 +4011,16 @@
         <v>20330051920213</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4388,16 +4028,16 @@
         <v>20330051920214</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4405,16 +4045,16 @@
         <v>20330051920215</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4422,16 +4062,16 @@
         <v>20330051920203</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4439,16 +4079,16 @@
         <v>20330051920196</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4456,16 +4096,16 @@
         <v>20330051920198</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4473,16 +4113,16 @@
         <v>20330051920202</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4490,78 +4130,78 @@
         <v>20330051920218</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920191</v>
+        <v>17330051920305</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920201</v>
+        <v>20330051920191</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920210</v>
+        <v>20330051920192</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17330051920305</v>
+        <v>20330051920197</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
         <v>134</v>
@@ -4572,13 +4212,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920192</v>
+        <v>20330051920199</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
         <v>135</v>
@@ -4589,13 +4229,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920197</v>
+        <v>20330051920200</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
         <v>136</v>
@@ -4606,13 +4246,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920199</v>
+        <v>20330051920201</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
         <v>137</v>
@@ -4623,13 +4263,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920200</v>
+        <v>19330051920280</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
         <v>138</v>
@@ -4640,13 +4280,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920280</v>
+        <v>20330051920206</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
         <v>139</v>
@@ -4657,13 +4297,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920206</v>
+        <v>20330051920208</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
         <v>140</v>
@@ -4674,13 +4314,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920208</v>
+        <v>20330051920209</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
         <v>141</v>
@@ -4691,13 +4331,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920209</v>
+        <v>20330051920210</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
         <v>142</v>
@@ -4711,10 +4351,10 @@
         <v>20330051920211</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
         <v>143</v>
@@ -4728,10 +4368,10 @@
         <v>20330051920212</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
         <v>144</v>
@@ -4745,10 +4385,10 @@
         <v>20330051920216</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
         <v>145</v>
@@ -4762,10 +4402,10 @@
         <v>20330051920217</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>146</v>
@@ -4779,10 +4419,10 @@
         <v>20330051920219</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>147</v>
@@ -4798,7 +4438,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4833,91 +4473,91 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920191</v>
+        <v>20330051920196</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920191</v>
+        <v>20330051920196</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920202</v>
+        <v>20330051920198</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920202</v>
+        <v>20330051920198</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -4925,116 +4565,93 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920218</v>
+        <v>20330051920191</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920218</v>
+        <v>20330051920200</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920200</v>
+        <v>20330051920202</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920201</v>
+        <v>20330051920218</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
       </c>
       <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10">
         <v>-1</v>
       </c>
     </row>
